--- a/FACULTY & PHD LIST/FACULTY & PHD LIST.xlsx
+++ b/FACULTY & PHD LIST/FACULTY & PHD LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\AUGSD-TT\Course-Loader\FACULTY &amp; PHD LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E515628-747A-475B-847E-EB4F735DB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6DC30A-A634-4ED1-B155-63136E820A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="7176" windowWidth="23040" windowHeight="14100" xr2:uid="{DAF648DA-4FFD-4D28-8D6E-DF289DC6DF64}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="23040" windowHeight="14100" xr2:uid="{DAF648DA-4FFD-4D28-8D6E-DF289DC6DF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4330,7 +4330,7 @@
     <t xml:space="preserve">ANJALI </t>
   </si>
   <si>
-    <t>Computer Science</t>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -4850,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36D6C80-594B-4E1E-84FA-BFB79281911F}">
   <dimension ref="A1:E542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="K287" sqref="K287"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
